--- a/main code/data/100.xlsx
+++ b/main code/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2400 +448,1920 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김동연, '아동복지와 돌봄의 현안과 대책' 토론회 축사</t>
+          <t>선거 앞두고 親文서 親李로 갈아탄 김근태계</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>구리시 인창동에 산불대응센터 건립</t>
+          <t>李, 오차범위 밖 앞서…李 42.4% vs 尹 34.9%</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>日, 사도광산 세계유산 후보로…외교부 "즉각 철회 촉구"</t>
+          <t>국회, 김진욱 공수처장 불러 '통신조회' 논란 캐묻는다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>국회 토론회 참석한 김동연 후보</t>
+          <t>공수처, 윤석열 통신자료도 조회…정당한 수사인가, 野 사찰인가</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이재명 "국민의힘과 '연정' 바람직…가능성은 낮을 듯"</t>
+          <t>'나를 위해 이재명' 정철 "일주일 전 툭 떠오른 문구…이거 물건 되겠다"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>아산硏 "내년 가장 큰 리스크는 한미동맹 균열 가능성"</t>
+          <t>공수처, 윤석열·김건희도 통신조회…尹 "게슈타포나 할 일"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[신년사] 신은호 인천시의회 의장 "새해엔 일상 회복되길"</t>
+          <t>5·7급 공무원 시험 응시 연령 하향</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회 참석한 김동연 새로운물결 대선 후보</t>
+          <t>이재명, 윤석열 향한 거센 입 “특수부 검사 면모 걱정” “외교 발언 심사숙고 해야”</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>“공수처가 아니라 윤수처”…국민의힘, 사찰 의혹 공수처 맹공</t>
+          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[인사] 강진군</t>
+          <t>여야, 김진욱 출석시켜 '사찰' 의혹 현안질의 합의</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>한·중 의회, 행정입법에 대한 입법부 통제 중요성 확인</t>
+          <t>與野, 31일 본회의 전격합의···법사위선 공수처장 '통신조회 논란' 질의</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이준석, 호텔 성상납 의혹 제기한 가세연 고소 방침…“허위사실”(종합)</t>
+          <t>野 "'윤석열 죽이기', 결국 실패로 끝났다…티끌조차 못찾아"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[정치+] 정세균, 이재명 후원회장 수락…윤석열, 선대위 기강 다잡기</t>
+          <t>TK 일정 시작한 윤석열…"이재명 '감원전'? 왜 또 입장 바뀌나"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>문 대통령 “남북철도 연결되면 동남권이 유라시아 진출 거점”</t>
+          <t>때아닌 야권발 정계개편 시나리오…與 연기 피우자 野 손사래</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>윤석열 "김건희, 유세 강요 안 해…집사람은 자기 일 있다"</t>
+          <t>[팩트체크] 국회의원 출마 연령 만 18세로 내린다는데…다른 나라는?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>이재명 "터무니없는 네거티브"…윤석열 "물타기 토론은 안해"</t>
+          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>與 정책 '역주행'에 우려 드러낸 홍남기, "정부 성과 정확히 전달 해달라"</t>
+          <t>[사사건건] 이재명 “미래로 갈 것인지, 무능한 보복에 매달릴 것인지”</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>법제처, 행정원칙·기준 담은 '행정기본법 해설서' 발간</t>
+          <t>윤석열 "공수처가 권위주의 시절에나 있던 짓 해…입법 사기"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장 만난 윤석열</t>
+          <t>"내 아들 취직 좀"…이런 공무원, 이젠 김영란法 적용</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>가세연 "이준석, 룸살롱 갔냐 안 갔냐 답해라" '성상납 의혹' 추가 폭로 예고</t>
+          <t>이재명, ‘아들 입시’ 허위사실 유포 의원 고발 예고</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>국방안보특별위 이철휘 위원장에게 임명장 수여하는 송영길 대표</t>
+          <t>이재명, 이낙연과 신복지 공약..."복지도 선진국 반열로"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>인사말하는 송영길 대표</t>
+          <t>[영상] 신지예 "부족한 후보들이 토론 요청…지지율 높으면 안해"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>민주당 송영길 대표, 국방안보특별위원회 임명장 수여식</t>
+          <t>이재명, 영·호남 특보단장에 최인호·강기정 임명</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>박근혜 전 대통령에게 "미안하다"는 윤석열</t>
+          <t>[오뉴스 출연] 대선후보 토론 공방 (김수민 평론가)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>민주당, 이재명 형제 갈등 다룬 책 판매금지 가처분 신청</t>
+          <t>신지예, 이재명 ‘나를 위해’ 슬로건에  “정말 李 답다”</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>내년 대통령 연봉 2억4,000만원...병사 월급 11% 인상</t>
+          <t>與野, 31일 국회 본회의 소집…'대장동 특검’ 합의는 불발</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>기조발언하는 윤석열</t>
+          <t>윤석열·김건희 통신자료도 조회..."공수처장 구속돼야"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>암참 간담회 참석하는 윤석열</t>
+          <t>이재명 “대통령 부인은 공적 존재, 아들은 남”</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>암참 회장 만난 윤석열 후보</t>
+          <t>윤석열 자문역 신평 "이준석은 걸림돌, 대표 공석 문제 안돼"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>마스크 벗는 윤석열</t>
+          <t>[사사건건] 이준석 “털 깎인 매머드 쫓아오는 악몽…선대위 복귀 고려안해”</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>암참 간담회 참석한 윤석열</t>
+          <t>여야, '언론사찰' 공수처 현안 질의·언론특위 연장 합의</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>윤석열 '한미 경제 현안에 대한 정책은?'</t>
+          <t>李 "방향 맞아 → 오류 → 실패"…'文 부동산 때리기' 갈수록 세진다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>이재명 "문재인 정부, 권력행사 부정부패 없었다"</t>
+          <t>군 부대 오미크론 유입 첫 공식 확인…추가 확진 가능성</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>윤석열, 한미 경제정책 구상</t>
+          <t>이준석 “털 깎인 매머드가 쫓아오는 악몽 꾼다”</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>정부 "일 사도광산 세계유산 등재추진 매우 개탄…즉각 철회 촉구"</t>
+          <t>민주당, 내일 천정배 등 호남계 10여 명 복당식</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>이준석 '돌풍'이 200일 만에 '역풍'으로…당내 고립?</t>
+          <t>정부 탈원전 정책 비판한 윤석열, "원전 중단은 범죄"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>파주시, 2018년부터 4년간 외부 재원 1천56억원 확보</t>
+          <t>여야, 31일 본회의 소집‥'대장동 특검' 합의는 불발</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>마주 앉은 윤호중-김기현, 여야 원내대표 회동</t>
+          <t>윤석열 후보 '예를 갖춰서'</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>박병석 의장, 대선후보에 ‘대한민국 미래 청사진’ 전달</t>
+          <t>예법 배우는 윤석열 후보</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>"아내 역할만 충실" 김건희에 고민정 "영부인 선택영역 아냐"</t>
+          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>악수하는 윤호중-김기현, 원내대표 회동</t>
+          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>정진상 “검찰 출석 요구 불응 사실 아냐…일자 조율 중”</t>
+          <t>윤석열 후보 '인사는 깍듯이'</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>이재명 "촛불 직후 개헌 실기…실현가능성 낮다"</t>
+          <t>윤석열 후보 '조복 글귀와 함께'</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>안동 도산서원 찾은 윤석열 후보</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18년 노력의 결실 '동남권 4개 철도' 개통…지역균형 뉴딜 새 시대 열렸다</t>
+          <t>이재명, 이낙연과 드림팀 첫 호흡..새 슬로건 발표</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>이낙연 이어 정세균도 ‘등판’···이재명 후원회장 맡아</t>
+          <t>잇단 `러브콜`에 몸값 껑충…안철수, 정치적 존재감 과시</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>윤석열 “박근혜에 인간적으로 미안한 마음…건강 회복 바랄뿐”</t>
+          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LH·SH 직원과 가족, 내년 5월부터 사업지구내 부동산거래 신고 의무</t>
+          <t>국민의힘, 공수처 앞 의총 취소…"국회 오는 김진욱에 집중"(종합)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>‘윤리위 제소’ 김용남, 이준석에 “벼락출세 하더니 망가져”</t>
+          <t>이용호 “이재명, 정치공세 할 시간 있으면 가족 간수부터 하라”</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>취재진 질문 듣는 이준석 국민의힘 대표</t>
+          <t>공수처, 윤석열·김건희 통신조회에…野 “공수처장 감옥 가야”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이준석, '대표 사퇴론'에 "평가에 관대…이런 게 민주주의"</t>
+          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>이준석, '대표 사퇴론'에 "평가에 관대…이런 게 민주주의"</t>
+          <t>송영길, 윤석열 겨냥 "외교에 대해 무지…나라 맡기면 위험"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>취재진 질문 듣는 이준석 국민의힘 대표</t>
+          <t>퇴계 이황 선생 위패 모신 상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>윤석열 "반시장적 현 정부 정책 정상화시킬 것‥불합리한 규제 개선"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>北 "美 '테러재판관' 행세…타국 테러국가 매도는 적반하장"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>이준석 측, `李 2013년 성 상납 받은 의혹` 가세연에 "허위사실" 고소</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>이재명, MB 사면론에 "'좋은 게 좋은 것'은 오히려 통합 저해"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>이재명, 이명박 사면론에 “대사면 오히려 통합 저해”</t>
+          <t>공수처, 윤석열·김건희 통신 기록 조회… 野 의원 78명도 조사(종합)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>환영사하는 제임스 김</t>
+          <t>李, 새 슬로건 '앞으로 제대로 나를 위해 이재명'</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>[여의도펀치] 민주당 박상혁·국민의힘 박수영 한판 토론</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>尹 “대통령 5년이 뭐 대단하다고... 文정권 너무 겁이 없다”</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>종교시설 방역현장 점검하는 황희 장관</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>종교시설 방역현장 점검나선 황의 장관</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>인천공항 병무민원센터 찾은 정석환 병무청장</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>모집병 면접장 방역상황 등 살피는 정석환 병무청장</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회하는 윤석열 후보</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회하는 윤석열 후보</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>종교시설 방역현장 점검하는 황희 장관</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여식 인사말</t>
+          <t>이재명·이낙연, 신복지 공약 “아동수당 月10만원, 7세→18세까지”</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>이준석과 윤석열, 등 돌린 결정적 이유 세 가지</t>
+          <t>[단독]보훈예산 근거인 보훈대상자 부상·질병 데이터 8만 명 누락</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>이준석 “선대위, 인적 쇄신 없이는 변화도 없어”</t>
+          <t>"복지를 선진국 수준으로"…"원자력 정책 다시 세우겠다"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식 기념촬영</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여식 인사말</t>
+          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식</t>
+          <t>도산서원 방문한 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>인사말하는 이철휘 더불어민주당 국방안보특별위원장</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식</t>
+          <t>윤석열 후보, 안동 도산서원 방문</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>이준석 “尹측에서 요청하면 복귀 생각…아직 연락 없어”</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>"제설장비 없이 장병들만 X뺑이"···軍, 제설 지원 논란</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>"올해 대북송금" 탈북민 20% 불과…북한 코로나 국경봉쇄 여파</t>
+          <t>전방 찾은 김총리 "세계 5위권 최강군대…여러분이 안보 주역"(종합)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>북 “美 테러재판관 행세 적반하장”…테러지원국 재지정 우회 반발</t>
+          <t>[노컷브이]국힘 "윤석열 10회, 가족 9회 사찰당했다"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>방사청 "고체연료 우주발사체 설계, 내년부터 민군 공동 추진"</t>
+          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>아동복지와 돌봄의 현안과 대책 토론회 참석한 김동연 대선후보</t>
+          <t>국민의힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회, 축사하는 김동연</t>
+          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>이준석, 지역균혈발전 모색 정책토론회 축사</t>
+          <t>여·야, 31일 본회의 합의… 미디어특위 활동 연장 처리</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>이준석, 일부 초선 '당대표 사퇴 요구'에 "이런게 민주주의"</t>
+          <t>여야 31일 본회의 합의…30일엔 공수처장 출석 법사위 열기로</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[더뉴스] 신문만평 모음</t>
+          <t>윤석열·김건희도 털렸다…'무차별 통신조회' 공수처 '총공세'</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>지역균혈발전 모색 정책토론회 참석한 이준석 대표</t>
+          <t>국민의힘 “공수처, 윤석열·김건희 통신 자료 조회”</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>박완주 “종부세 개정 ‘소급적용’ 다 열어놓고 검토…반대하는 정부와 새해부터 논의”</t>
+          <t>이낙연표 '신복지' 띄운 이재명…정책도 '원팀'</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>재정부담은 뒤로 한 채···아동수당 7세→18세로 늘린다</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열 "얼마나 비리 많길래 이렇게 무리하나…文정권 겁이 없다"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>내일 법사위...공수처장 상대 '통신조회' 질의</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>김건희 ‘허위 경력 의혹’ 고발인 경찰 조사… “2차 추가 고발하겠다”</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>이낙연과 외부 일정 시작한 이재명…기본소득과 대립한 ‘신복지’ 띄우며 통합 신호탄</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>여야 31일 본회의 개최…미디어 특위 연장·엑스포 특위 신설[전문]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>이재명, ‘삶의 질 15위’ 공약 발표…윤석열, TK 찾아 이재명 비판</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>'윤석열 선대위' 골든타임 재깍재깍, '요지부동' 이준석 그러나…</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열 후보 '조복 글귀와 함께'</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>안동 도산서원 찾은 윤석열 후보</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>이준석 연내 선대위 복귀 불투명..李 "합류 고려 없다"</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>'울산~부산' 전철 탄 文대통령 "동남권 메가시티 첫 걸음"</t>
+          <t>윤석열 후보 '예를 갖춰서'</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>12월 임시국회 합의문에 서명하는 여야 원내대표</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>예법 배우는 윤석열 후보</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>‘대표 사퇴론’ 들은 이준석, “이런 게 민주주의”</t>
+          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>답변하는 이준석 대표</t>
+          <t>윤석열 후보 '인사는 깍듯이'</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>울산서 광역열차 탄 文 "저도 곧 동남권 돌아올 사람…꿈 같다"</t>
+          <t>군부대에도 ‘코로나19 오미크론’ 유입…첫 사례 공식 확인</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>환영사하는 제임스 김 암참 회장</t>
+          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>이재명·이낙연, '신복지'로 첫 원팀 공동행보</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>“무소불위 특권의식”“정치 공세”…李-尹 공개토론 놓고 연일 신경전</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>이재명 “생애최초 주택 구입 취득세 50% 감면 대상자 확대하자”</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>이준석, '성상납' 의혹 제기 가세연 "허위사실 명예훼손" 고소키로</t>
+          <t>여야 원내대표 12월 임시국회 합의문 발표</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>암참 초청 간담회 기조발언하는 윤석열</t>
+          <t>여야, 31일 본회의서 미디어특위 연장…공수처장 30일 법사위 출석(종합)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>암참 간담회 초청받은 윤석열</t>
+          <t>이재명-이낙연 '첫 공동행보'</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>당정 '부동산세' 갈등 이어지는데···이재명 "취득세도 완화”</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>나경원 "후보 빛나게 해줄 리더십 필요…선거 이상하게 흘러가"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>"이재명 후보와 함께 젊은 제주 만들 것"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>김영희 "이재명 부부 `캐롤 뮤비`, `나가수` 보다 힘들었다"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>동남권 첫 광역전철 시승 文 "저도 곧 돌아와 생활할 사람"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>이준석 "선대위, 인적쇄신 없이 변화 어렵다"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>이재명, 이명박 사면론에…“통합에 도움이 되는 범위 내에서”</t>
+          <t>여야 원내대표 합의문 발표</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>정부 "日사도광산 세계유산 등재추진 개탄…즉각철회하라"</t>
+          <t>윤석열·김건희 통신자료 턴 공수처…尹 "이러려고 만들었나"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>윤석열, 암참 간담회서 기조발언</t>
+          <t>악수하는 이재명-이낙연</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>'울산~부산' 전철 탄 文대통령 "부·울·경 메가시티 첫 걸음"</t>
+          <t>이재명, 이낙연과 신복지 공약</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>암참 간담회 참석하는 윤석열 대선후보</t>
+          <t>한국사회보장정보원 방문한 이재명</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>윤석열 "글로벌 스탠다드로 제도 정비해 아태지역 비즈니스 허브로"</t>
+          <t>이천시, 국가유공자 보훈·참전명예수당 인상</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>윤석열, 암참 회장과 좌담</t>
+          <t>공수처, 윤석열·김건희도 통신조회…野 “공수처장 탄핵해야”</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>제임스 김 회장과 좌담하는 윤석열</t>
+          <t>대전·수도·고양·포천 軍병원, 292병상서 민간 확진자 치료</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>인사말하는 제임스 김 암참 회장</t>
+          <t>李 간판 바꿨다…'이재명은 합니다'→'나를 위해, 이재명'</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>윤석열 "대통령 되면 IPEF 같은 글로벌 경제 체제에 적극 참여"</t>
+          <t>野 "이재명 두 아들, 대학 입시 불투명" vs 與 "윤석열 선대위 흑색선전 극심"</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>윤석열 "대통령 되면 글로벌 경제 체제에 적극 참여"</t>
+          <t>이재명·이낙연, 신복지 일정으로 첫 공동행보</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>통역기 착용하는 윤석열 대선후보</t>
+          <t>윤석열 "대장동 수사 뭉개기· 인사 보복… 이 정권은 겁도 없다"</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>홍준표 “후보가 직접 갈등 관리해야...이준석 포용하라”</t>
+          <t>[뉴스큐] 與, 탈당파 대통합 추진...이준석, 선대위 복귀 시동?</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>내년 5년차 이상 민방위 대원 비상소집훈련 폐지</t>
+          <t>윤석열 "文정권 너무 겁 없다…사법 업무자에 보복"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>이재명 "촛불혁명 직후 전면개헌했어야…현재는 단계적 개헌"</t>
+          <t>하남시, 2021년 10대 뉴스 1위는?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>이재명 "용산공원에 청년주택…도심 용적률 완화 등 공급 늘려야"</t>
+          <t>[현장의재구성] 양보없는 치킨게임…이준석의 선택은?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>마스크 벗는 윤석열 대선후보</t>
+          <t>野 “공수처, 윤석열 부부 17회 통신 조회…불법 사찰”(종합)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>통역기 착용하는 윤석열 대선후보</t>
+          <t>해군, 지난주 독도 해역서 '영토수호훈련'</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>“LH 직원, 사업 지구 내 부동산 거래 때 신고 의무”</t>
+          <t>李 "취득세 부담도 완화"‥尹 "원전 중단은 범죄"</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>이재명 "문 정부, 부정부패 없다...높은 지지율 원인"</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>인사하는 윤석열 대선후보</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14→10일로 줄인다</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>인사하는 윤석열 대선후보</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>"이준석, 尹후보 측 요청하면 당연히 복귀 생각"</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>윤석열 “김건희 사과, 충분했다 하기 어려워…선거유세 강요 안할 것”</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>답변하는 윤석열 대선후보</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>답변하는 윤석열 대선후보</t>
+          <t>[대선 말말말] "김근태의 길 따라서…" "세제도 원전정책도 맨날 바뀌어"</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>윤석열 "전두환 발언, 민주당 후보였다면 괜찮았을텐데 국민의힘 소속이라..."</t>
+          <t>윤석열  “文 탈원전 정책 폐기, 신한울 3·4호기 건설 재개”</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>암참 간담회에서 개회사하는 윤석열 대선후보</t>
+          <t>김정은, 새로운 농촌 전략으로 식량 문제 해결할까</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>文대통령 "가덕신공항 개항되면 동남권, 동북아 8대 메가시티"</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>'대만해협' 또 주인공 될까…"한미일, 국방장관회담 조율중"</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>권익위, 음주 면허 취소 구제 '제멋대로'…감사원 "감경 기준 유명무실"</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>김종인 "이준석 엇박자? 큰 걱정 안해…본인이 문제 잘 알 것"</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>文대통령 "울산-부산 전철로 가다니 꿈 같다…동남권 주민으로 감회 새로워"</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>통일부 “북한 1천여 명 전원회의…내년도 정책방향 주목”</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>김종인 "공정경제 이뤄져야 포용적 성장 가능…정부 역할 많아"</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>與, 소급적용 포함 '종부세 개정' 착수…"확정은 아냐"</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>윤석열, '겹겹 위기' 정면 돌파 "아내, 진정한 마음서 사과…이준석 능력 대단" (종합)</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>이재명 "개헌 필요하지만 실현 가능성 낮아‥촛불혁명 직후 실기"</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>고양시, 중·고교생 진로멘토단 '고양유니브' 모집</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>[머니S포토] 여야 원내 지도부, 국회 운영위원장실에서 회동</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>강용석 "이준석, 제발 빨리 우릴 고소해 달라…정계은퇴 걸고"</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>오미크론 감염 4명 늘어 449명…강원서 가족간 n차감염 의심(종합)</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>이재명 "공급 부족해 집값 오르는 일 없도록 할 것"</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>정동균 양평군수 "아프가니스탄 여성들에게 희망 보내달라"</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>이준석 "선대위 인적쇄신 없이 변화 어려워…김종인도 아이디어 모색"</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>30년간 조국 해양 수호한 해군 함정 8척 전역</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>국힘 "최강욱 주최 토크쇼에 이재명만 발언…공직선거법 위반"</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>[포토]'악수하는 윤호중-김기현'</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>[포토]'여야 원내대표 회동'</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>[머니S포토] 윤호중·김기현, 여야교섭단체 재논의</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>이재명 "가족 검증에 전적 공감...잘못한 것 책임져야"</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>[포토]'마주 앉은 여야 원내대표'</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>[노컷브이] 윤석열 "이준석 30대지만 대단한 능력…잘 할 것"</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>인사하는 여야 원내대표</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>여야 원내대표 회동</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>윤호중 민주당 원내대표-김기현 국민의힘 원내대표 회동</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>장진영 "이준석, '성상납 받은 사실 없다'고 안 한 이유 무엇인가"</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>[더뉴스] 李, '원팀' 속 정책 행보...尹, '당 내홍' 기강 잡기?</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>[영상]윤석열 "이준석, 자기 할 일 알 것…본인 정치 입지와 직결되는 문제"</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>축사하는 김동연 대선후보</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>이재명, MB 사면론에 "통합과 봉합은 달라...대사면, 통합 저해"</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
